--- a/análisis/Requerimientos/Funcionales/RF02_Alerta de inventario.xlsx
+++ b/análisis/Requerimientos/Funcionales/RF02_Alerta de inventario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -263,17 +263,17 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>El sistema debe generar una alerta cuando un articulo del inventario está llegando a su cantidad crítica.
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>El sistema debe generar una alerta cuando un artículo del inventario está llegando a su cantidad crítica.
 La alerta consiste en generar una tarea para el bloque horario actual y una notificación al administrador.</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -467,6 +467,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,9 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,7 +774,7 @@
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,76 +804,76 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
